--- a/画面設計書/画面設計書_2_画面遷移図.xlsx
+++ b/画面設計書/画面設計書_2_画面遷移図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2.画面遷移図" sheetId="4" r:id="rId1"/>
@@ -592,1551 +592,4415 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106505</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>199526</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CDA43F92-FF2F-BE10-B0E5-12D8CE21817C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2066926" y="1104900"/>
-          <a:ext cx="1714500" cy="523875"/>
+          <a:off x="154130" y="657225"/>
+          <a:ext cx="9685195" cy="5543051"/>
+          <a:chOff x="-437978" y="161537"/>
+          <a:chExt cx="12483162" cy="6900873"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ログイン画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6181726" y="1104900"/>
-          <a:ext cx="1714500" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザ登録画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3781426" y="1366838"/>
-          <a:ext cx="2400300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3895724" y="1019176"/>
-          <a:ext cx="1943101" cy="390524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="テキスト ボックス 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{490054CF-5A12-2AE0-B316-094867CC1A3C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-305164" y="2025866"/>
+            <a:ext cx="1731682" cy="646331"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザ登録ボタン押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2562225" y="1624013"/>
-          <a:ext cx="1" cy="966787"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3124200" y="1624013"/>
-          <a:ext cx="1" cy="966787"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3114675" y="1838325"/>
-          <a:ext cx="1143000" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+              <a:t>ログイン</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+              <a:t>ボタン押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="テキスト ボックス 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4248CE9F-E3E5-2A18-10D0-C8D81954C16C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-437978" y="4383408"/>
+            <a:ext cx="2330340" cy="646331"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ボタン押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="1828800"/>
-          <a:ext cx="1143000" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ボタン押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047876" y="2590800"/>
-          <a:ext cx="1714500" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>試験選択</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2552700" y="3105150"/>
-          <a:ext cx="1" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3381376" y="3190875"/>
-          <a:ext cx="9524" cy="695326"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047876" y="3943350"/>
-          <a:ext cx="1714500" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>試験スタート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3581400" y="3295650"/>
-          <a:ext cx="1143000" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>終了ボタン</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>押下</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1095375" y="3257550"/>
-          <a:ext cx="1143000" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>試験を選択</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057401" y="5133975"/>
-          <a:ext cx="1714500" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>試験</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ページ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6115051" y="2600325"/>
-          <a:ext cx="1714500" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>試験結果一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3962400" y="5372100"/>
-          <a:ext cx="1885950" cy="9526"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4010025" y="2933700"/>
-          <a:ext cx="2019301" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4505324" y="2181224"/>
-          <a:ext cx="1228726" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分の成績を見るボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4743450" y="3009900"/>
-          <a:ext cx="1143000" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2457450" y="4467225"/>
-          <a:ext cx="9526" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="4581525"/>
-          <a:ext cx="1143000" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スタートボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4467225" y="5019675"/>
-          <a:ext cx="1133475" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>採点ボタン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6019801" y="5114925"/>
-          <a:ext cx="1714500" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>試験結果表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4029075" y="3200400"/>
-          <a:ext cx="2819400" cy="1828801"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5381625" y="3781425"/>
-          <a:ext cx="1743075" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>試験選択に戻るボタン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3876676" y="2705100"/>
-          <a:ext cx="2105024" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>科目選択</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+              <a:t>ボタン押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="33" name="グループ化 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{28FA8280-B51A-8EA9-C690-6E629667AE7A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="776622" y="161537"/>
+            <a:ext cx="11268562" cy="6900873"/>
+            <a:chOff x="776622" y="161537"/>
+            <a:chExt cx="11268562" cy="6900873"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="34" name="グループ化 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4A99EB85-744C-1ACC-A22D-F87B69067F9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="806262" y="797860"/>
+              <a:ext cx="2438401" cy="842681"/>
+              <a:chOff x="2034987" y="645460"/>
+              <a:chExt cx="2438401" cy="842681"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="86" name="四角形: 角を丸くする 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A913BF25-3A02-C153-936A-DE026F0B8388}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2034987" y="645460"/>
+                <a:ext cx="2438401" cy="842681"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="87" name="テキスト ボックス 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8B9BA5D3-9E55-44E9-0227-E3F689E86FF6}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2260654" y="882134"/>
+                <a:ext cx="2051273" cy="369332"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                  <a:t>ログイン画面</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{81766EED-6FA4-6949-D27D-BA12088F2DAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3486150" y="962025"/>
+              <a:ext cx="2295525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="36" name="グループ化 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{82893222-EC7B-7DA1-DD77-DBD24A5C0AA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="6038852" y="775168"/>
+              <a:ext cx="2728456" cy="888064"/>
+              <a:chOff x="2034987" y="645461"/>
+              <a:chExt cx="2410594" cy="816426"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="84" name="四角形: 角を丸くする 11">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{94846D64-85EC-5594-CDEB-774A175F61AA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2034987" y="645461"/>
+                <a:ext cx="2272142" cy="816426"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="85" name="テキスト ボックス 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{EB8F70C0-FCB2-54A5-061E-357AD2D6752A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2048028" y="858108"/>
+                <a:ext cx="2397553" cy="369332"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ユーザー登録画面</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{23BA34E0-BC8A-8B47-27D9-E6B12B46FA7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3486151" y="1422916"/>
+              <a:ext cx="2295525" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="テキスト ボックス 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{70FA00D0-B1C4-92C2-6A07-9B553E8FCDCE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3935513" y="1550741"/>
+              <a:ext cx="1836283" cy="646331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>キャンセル</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="テキスト ボックス 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1B7CAEFC-C934-5D12-D271-047C5417C80F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3751363" y="161537"/>
+              <a:ext cx="1983603" cy="646331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>新規登録</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AEAAA5FA-5B04-A954-CD27-DB6E6B6281F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1647825" y="1779040"/>
+              <a:ext cx="0" cy="1139985"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7B23CD64-99C5-C9B0-DDED-C712B4683F07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="2362200" y="1779041"/>
+              <a:ext cx="0" cy="1139985"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="44" name="グループ化 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F7CA8FFB-51EF-229E-1D7C-11E1F0B91859}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="793985" y="3171917"/>
+              <a:ext cx="2438401" cy="842681"/>
+              <a:chOff x="2022710" y="657318"/>
+              <a:chExt cx="2438401" cy="842681"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="82" name="四角形: 角を丸くする 28">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{DC4BC098-D1E0-7EAD-A18F-465F2C5B4B9A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2022710" y="657318"/>
+                <a:ext cx="2438401" cy="842681"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="83" name="テキスト ボックス 29">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6ADA1912-006B-D1D9-1499-A3D492DF9B49}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2212613" y="810985"/>
+                <a:ext cx="2219260" cy="369332"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>試験選択</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                  <a:t>画面</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="テキスト ボックス 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4CEB6FE3-3B25-C3A1-1E33-B2E6B42ACD96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2076514" y="2025865"/>
+              <a:ext cx="2209804" cy="646331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ログアウト</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1659FD45-DE58-3112-19D9-7D5F362D2030}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1647825" y="4150765"/>
+              <a:ext cx="0" cy="1139985"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="47" name="グループ化 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{2B3D91C1-9C48-7B14-4963-5F32436C680C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="776622" y="5693678"/>
+              <a:ext cx="2438402" cy="860517"/>
+              <a:chOff x="2054505" y="900363"/>
+              <a:chExt cx="2438402" cy="860517"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="80" name="四角形: 角を丸くする 33">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{94649A4A-91EC-B3A5-B37F-100E5FD4CB73}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2054505" y="918199"/>
+                <a:ext cx="2438402" cy="842681"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="81" name="テキスト ボックス 34">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3F4AEF7B-9E0F-0329-CC2F-FFB951085334}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2287682" y="900363"/>
+                <a:ext cx="2031325" cy="369332"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>試験スタート画面</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="48" name="グループ化 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E5C04176-EC55-E68F-C10D-B89A10AE029B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="3473870" y="5891067"/>
+              <a:ext cx="1150641" cy="357911"/>
+              <a:chOff x="3543345" y="6078629"/>
+              <a:chExt cx="848939" cy="357911"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3527D45C-4545-4E78-033A-5D97E633D58E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:cxnSpLocks/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3552403" y="6078629"/>
+                <a:ext cx="839881" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C26DAABB-62DF-0808-629C-E6592024D1BB}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:cxnSpLocks/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="3543345" y="6436540"/>
+                <a:ext cx="839880" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F325081F-7C2E-DB16-8967-1A3DC7A7E105}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="2362200" y="4150766"/>
+              <a:ext cx="0" cy="1139985"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="50" name="グループ化 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F3B4C825-90E3-92C8-BEF2-F6E38B89EC37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4861386" y="5457002"/>
+              <a:ext cx="2438401" cy="842681"/>
+              <a:chOff x="2103612" y="645460"/>
+              <a:chExt cx="2438401" cy="842681"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="76" name="四角形: 角を丸くする 42">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D3FECF6D-5AFF-EDAC-BF83-F52E208B1F03}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2103612" y="645460"/>
+                <a:ext cx="2438401" cy="842681"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="77" name="テキスト ボックス 43">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{11CF5D83-67ED-4898-887F-1B5878117B7A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2531636" y="879480"/>
+                <a:ext cx="1943313" cy="369332"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>試験画面</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1E7522C0-5450-ACE8-4295-7A36E4EBEB6E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7585105" y="5954981"/>
+              <a:ext cx="1170601" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="56" name="グループ化 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F155EB5E-8992-C110-5E52-64DB8691A17F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8949430" y="5457003"/>
+              <a:ext cx="2438401" cy="842681"/>
+              <a:chOff x="2103612" y="645460"/>
+              <a:chExt cx="2438401" cy="842681"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="74" name="四角形: 角を丸くする 54">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6AA7B225-B174-5602-5649-2C3ECE95E474}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2103612" y="645460"/>
+                <a:ext cx="2438401" cy="842681"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="75" name="テキスト ボックス 55">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1146E0FB-937F-944D-6128-1E5360CD7F5C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2267895" y="888815"/>
+                <a:ext cx="2231700" cy="369332"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>試験結果表示</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7483E73C-01FB-B0D3-45A0-E92828DAD77D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="3397832" y="4087631"/>
+              <a:ext cx="748704" cy="626736"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="テキスト ボックス 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E917E655-4467-244B-9204-D2931EC921CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7307873" y="5086616"/>
+              <a:ext cx="1790905" cy="646331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>採点</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="テキスト ボックス 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D7EC5B19-7E71-3CAD-F87D-535473F3C650}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2396440" y="4302189"/>
+              <a:ext cx="1705725" cy="646331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>戻る</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="テキスト ボックス 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F3D41CB9-F1A8-FD0C-012C-5FE7F5C60BF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3207554" y="5034047"/>
+              <a:ext cx="1668044" cy="546704"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>スタート</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="テキスト ボックス 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4E807E61-5923-FDD2-E6D5-272469D9E226}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2998991" y="6416079"/>
+              <a:ext cx="2220353" cy="646331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>戻る</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AD0A7BB7-8570-0D0B-B11A-ABBC28B5E89F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="3404123" y="3370220"/>
+              <a:ext cx="5426871" cy="22049"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="65" name="グループ化 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5177BF1D-C2A3-C65E-45BB-D640A64BEBAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8937548" y="3160059"/>
+              <a:ext cx="2849827" cy="888064"/>
+              <a:chOff x="2026336" y="645461"/>
+              <a:chExt cx="2517825" cy="816426"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="72" name="四角形: 角を丸くする 75">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D02F8C76-CED7-2E97-E2C9-9373B02CC245}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2034987" y="645461"/>
+                <a:ext cx="2272142" cy="816426"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="73" name="テキスト ボックス 76">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{176F5CB8-CA5F-EBF0-9896-6122454F6358}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2026336" y="836304"/>
+                <a:ext cx="2517825" cy="369332"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ユーザー登録画面</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="テキスト ボックス 78">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{67118CB8-F75E-8688-DE66-0F510F3053AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4611398" y="2588355"/>
+              <a:ext cx="3591183" cy="646331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>試験結果一覧</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="テキスト ボックス 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{36A258FE-036B-E6CF-9E79-B1CB1A431CA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6692547" y="3837776"/>
+              <a:ext cx="2614934" cy="414853"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>戻る</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{FE497F89-774F-5D06-E70D-F6CA6776B252}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="3404124" y="3766065"/>
+              <a:ext cx="5351583" cy="33826"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="69" name="直線コネクタ 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7227A2A8-9146-F5F5-87CA-17720E2D6B86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4146536" y="4704287"/>
+              <a:ext cx="6022094" cy="1982"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="70" name="直線コネクタ 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{884526CE-3D81-3C4F-541E-3BDD4FBAA711}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10168630" y="4686652"/>
+              <a:ext cx="0" cy="709890"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="71" name="テキスト ボックス 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{75E21272-7C48-4280-AA24-BA6450652944}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10180259" y="4397592"/>
+              <a:ext cx="1864925" cy="646331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US"/>
+                <a:t>試験選択</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                <a:t>ボタン押下</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2397,7 +5261,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2407,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BY9" sqref="BY9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/画面設計書/画面設計書_2_画面遷移図.xlsx
+++ b/画面設計書/画面設計書_2_画面遷移図.xlsx
@@ -592,20 +592,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>106505</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35537</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>199526</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="グループ化 29">
+        <xdr:cNvPr id="183" name="グループ化 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{CDA43F92-FF2F-BE10-B0E5-12D8CE21817C}"/>
@@ -616,15 +616,15 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="154130" y="657225"/>
-          <a:ext cx="9685195" cy="5543051"/>
-          <a:chOff x="-437978" y="161537"/>
-          <a:chExt cx="12483162" cy="6900873"/>
+          <a:off x="212430" y="1258662"/>
+          <a:ext cx="10176623" cy="5296580"/>
+          <a:chOff x="-192425" y="103512"/>
+          <a:chExt cx="12241833" cy="7006121"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="テキスト ボックス 26">
+          <xdr:cNvPr id="184" name="テキスト ボックス 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{490054CF-5A12-2AE0-B316-094867CC1A3C}"/>
@@ -635,8 +635,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-305164" y="2025866"/>
-            <a:ext cx="1731682" cy="646331"/>
+            <a:off x="-59621" y="2025865"/>
+            <a:ext cx="1708818" cy="708765"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -760,7 +760,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="テキスト ボックス 66">
+          <xdr:cNvPr id="185" name="テキスト ボックス 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4248CE9F-E3E5-2A18-10D0-C8D81954C16C}"/>
@@ -771,8 +771,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-437978" y="4383408"/>
-            <a:ext cx="2330340" cy="646331"/>
+            <a:off x="-192425" y="4425860"/>
+            <a:ext cx="1723773" cy="633946"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -897,7 +897,7 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="33" name="グループ化 32">
+          <xdr:cNvPr id="186" name="グループ化 185">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{28FA8280-B51A-8EA9-C690-6E629667AE7A}"/>
@@ -908,15 +908,15 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="776622" y="161537"/>
-            <a:ext cx="11268562" cy="6900873"/>
-            <a:chOff x="776622" y="161537"/>
-            <a:chExt cx="11268562" cy="6900873"/>
+            <a:off x="806262" y="103512"/>
+            <a:ext cx="11243146" cy="7006121"/>
+            <a:chOff x="806262" y="103512"/>
+            <a:chExt cx="11243146" cy="7006121"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="34" name="グループ化 33">
+            <xdr:cNvPr id="187" name="グループ化 186">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4A99EB85-744C-1ACC-A22D-F87B69067F9E}"/>
@@ -928,14 +928,14 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="806262" y="797860"/>
-              <a:ext cx="2438401" cy="842681"/>
+              <a:ext cx="2610675" cy="842681"/>
               <a:chOff x="2034987" y="645460"/>
-              <a:chExt cx="2438401" cy="842681"/>
+              <a:chExt cx="2610675" cy="842681"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="86" name="四角形: 角を丸くする 3">
+              <xdr:cNvPr id="231" name="四角形: 角を丸くする 3">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A913BF25-3A02-C153-936A-DE026F0B8388}"/>
@@ -1086,7 +1086,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="87" name="テキスト ボックス 4">
+              <xdr:cNvPr id="232" name="テキスト ボックス 4">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{8B9BA5D3-9E55-44E9-0227-E3F689E86FF6}"/>
@@ -1097,8 +1097,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2260654" y="882134"/>
-                <a:ext cx="2051273" cy="369332"/>
+                <a:off x="2380969" y="820944"/>
+                <a:ext cx="2264693" cy="353943"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1215,7 +1215,7 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+            <xdr:cNvPr id="188" name="直線矢印コネクタ 187">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{81766EED-6FA4-6949-D27D-BA12088F2DAD}"/>
@@ -1258,7 +1258,7 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="36" name="グループ化 35">
+            <xdr:cNvPr id="189" name="グループ化 188">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{82893222-EC7B-7DA1-DD77-DBD24A5C0AA5}"/>
@@ -1270,14 +1270,14 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="6038852" y="775168"/>
-              <a:ext cx="2728456" cy="888064"/>
+              <a:ext cx="2710772" cy="888064"/>
               <a:chOff x="2034987" y="645461"/>
-              <a:chExt cx="2410594" cy="816426"/>
+              <a:chExt cx="2394970" cy="816426"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="84" name="四角形: 角を丸くする 11">
+              <xdr:cNvPr id="229" name="四角形: 角を丸くする 11">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{94846D64-85EC-5594-CDEB-774A175F61AA}"/>
@@ -1428,7 +1428,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="85" name="テキスト ボックス 12">
+              <xdr:cNvPr id="230" name="テキスト ボックス 12">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{EB8F70C0-FCB2-54A5-061E-357AD2D6752A}"/>
@@ -1439,8 +1439,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2048028" y="858108"/>
-                <a:ext cx="2397553" cy="369332"/>
+                <a:off x="2067563" y="840881"/>
+                <a:ext cx="2362394" cy="396540"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1558,7 +1558,7 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+            <xdr:cNvPr id="190" name="直線矢印コネクタ 189">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{23BA34E0-BC8A-8B47-27D9-E6B12B46FA7C}"/>
@@ -1601,7 +1601,7 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="テキスト ボックス 19">
+            <xdr:cNvPr id="191" name="テキスト ボックス 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{70FA00D0-B1C4-92C2-6A07-9B553E8FCDCE}"/>
@@ -1612,8 +1612,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3935513" y="1550741"/>
-              <a:ext cx="1836283" cy="646331"/>
+              <a:off x="3825030" y="1486468"/>
+              <a:ext cx="1801585" cy="666868"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1736,7 +1736,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="テキスト ボックス 20">
+            <xdr:cNvPr id="192" name="テキスト ボックス 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1B7CAEFC-C934-5D12-D271-047C5417C80F}"/>
@@ -1747,8 +1747,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3751363" y="161537"/>
-              <a:ext cx="1983603" cy="646331"/>
+              <a:off x="3967256" y="103512"/>
+              <a:ext cx="1924520" cy="611888"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1871,7 +1871,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+            <xdr:cNvPr id="193" name="直線矢印コネクタ 192">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AEAAA5FA-5B04-A954-CD27-DB6E6B6281F3}"/>
@@ -1914,7 +1914,7 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+            <xdr:cNvPr id="194" name="直線矢印コネクタ 193">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7B23CD64-99C5-C9B0-DDED-C712B4683F07}"/>
@@ -1957,7 +1957,7 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="44" name="グループ化 43">
+            <xdr:cNvPr id="195" name="グループ化 194">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F7CA8FFB-51EF-229E-1D7C-11E1F0B91859}"/>
@@ -1968,15 +1968,15 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="793985" y="3171917"/>
+              <a:off x="806262" y="3160059"/>
               <a:ext cx="2438401" cy="842681"/>
-              <a:chOff x="2022710" y="657318"/>
+              <a:chOff x="2034987" y="645460"/>
               <a:chExt cx="2438401" cy="842681"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="82" name="四角形: 角を丸くする 28">
+              <xdr:cNvPr id="227" name="四角形: 角を丸くする 28">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{DC4BC098-D1E0-7EAD-A18F-465F2C5B4B9A}"/>
@@ -1987,7 +1987,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2022710" y="657318"/>
+                <a:off x="2034987" y="645460"/>
                 <a:ext cx="2438401" cy="842681"/>
               </a:xfrm>
               <a:prstGeom prst="roundRect">
@@ -2127,7 +2127,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="83" name="テキスト ボックス 29">
+              <xdr:cNvPr id="228" name="テキスト ボックス 29">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6ADA1912-006B-D1D9-1499-A3D492DF9B49}"/>
@@ -2138,8 +2138,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2212613" y="810985"/>
-                <a:ext cx="2219260" cy="369332"/>
+                <a:off x="2263120" y="820945"/>
+                <a:ext cx="2146843" cy="500486"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2260,7 +2260,7 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="テキスト ボックス 30">
+            <xdr:cNvPr id="196" name="テキスト ボックス 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4CEB6FE3-3B25-C3A1-1E33-B2E6B42ACD96}"/>
@@ -2271,8 +2271,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2076514" y="2025865"/>
-              <a:ext cx="2209804" cy="646331"/>
+              <a:off x="2286044" y="2025865"/>
+              <a:ext cx="1749603" cy="555794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2387,7 +2387,6 @@
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
             </a:p>
             <a:p>
-              <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
                 <a:t>ボタン押下</a:t>
@@ -2397,7 +2396,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+            <xdr:cNvPr id="197" name="直線矢印コネクタ 196">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1659FD45-DE58-3112-19D9-7D5F362D2030}"/>
@@ -2440,7 +2439,7 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="47" name="グループ化 46">
+            <xdr:cNvPr id="198" name="グループ化 197">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{2B3D91C1-9C48-7B14-4963-5F32436C680C}"/>
@@ -2451,15 +2450,15 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="776622" y="5693678"/>
-              <a:ext cx="2438402" cy="860517"/>
-              <a:chOff x="2054505" y="900363"/>
-              <a:chExt cx="2438402" cy="860517"/>
+              <a:off x="825730" y="5438775"/>
+              <a:ext cx="2502821" cy="1273131"/>
+              <a:chOff x="2103613" y="645460"/>
+              <a:chExt cx="2502821" cy="1273131"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="80" name="四角形: 角を丸くする 33">
+              <xdr:cNvPr id="225" name="四角形: 角を丸くする 33">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{94649A4A-91EC-B3A5-B37F-100E5FD4CB73}"/>
@@ -2470,8 +2469,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2054505" y="918199"/>
-                <a:ext cx="2438402" cy="842681"/>
+                <a:off x="2103613" y="645460"/>
+                <a:ext cx="2438400" cy="1273131"/>
               </a:xfrm>
               <a:prstGeom prst="roundRect">
                 <a:avLst/>
@@ -2610,7 +2609,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="81" name="テキスト ボックス 34">
+              <xdr:cNvPr id="226" name="テキスト ボックス 34">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3F4AEF7B-9E0F-0329-CC2F-FFB951085334}"/>
@@ -2621,8 +2620,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2287682" y="900363"/>
-                <a:ext cx="2031325" cy="369332"/>
+                <a:off x="2201999" y="779308"/>
+                <a:ext cx="2404435" cy="588582"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2631,7 +2630,7 @@
             </xdr:spPr>
             <xdr:txBody>
               <a:bodyPr wrap="square" rtlCol="0">
-                <a:spAutoFit/>
+                <a:noAutofit/>
               </a:bodyPr>
               <a:lstStyle>
                 <a:defPPr>
@@ -2732,6 +2731,22 @@
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>試験スタート画面</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                  <a:t>ポップアップ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
               </a:p>
@@ -2740,7 +2755,7 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="48" name="グループ化 47">
+            <xdr:cNvPr id="199" name="グループ化 198">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E5C04176-EC55-E68F-C10D-B89A10AE029B}"/>
@@ -2751,15 +2766,15 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="3473870" y="5891067"/>
-              <a:ext cx="1150641" cy="357911"/>
-              <a:chOff x="3543345" y="6078629"/>
-              <a:chExt cx="848939" cy="357911"/>
+              <a:off x="3397761" y="5916208"/>
+              <a:ext cx="1226751" cy="504006"/>
+              <a:chOff x="3487194" y="6103770"/>
+              <a:chExt cx="905093" cy="504006"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:cxnSp macro="">
             <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+              <xdr:cNvPr id="223" name="直線矢印コネクタ 222">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3527D45C-4545-4E78-033A-5D97E633D58E}"/>
@@ -2772,7 +2787,7 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="3552403" y="6078629"/>
+                <a:off x="3552406" y="6103770"/>
                 <a:ext cx="839881" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="straightConnector1">
@@ -2802,7 +2817,7 @@
           </xdr:cxnSp>
           <xdr:cxnSp macro="">
             <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+              <xdr:cNvPr id="224" name="直線矢印コネクタ 223">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C26DAABB-62DF-0808-629C-E6592024D1BB}"/>
@@ -2815,8 +2830,8 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm flipH="1">
-                <a:off x="3543345" y="6436540"/>
-                <a:ext cx="839880" cy="0"/>
+                <a:off x="3487194" y="6607776"/>
+                <a:ext cx="839881" cy="0"/>
               </a:xfrm>
               <a:prstGeom prst="straightConnector1">
                 <a:avLst/>
@@ -2846,7 +2861,7 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+            <xdr:cNvPr id="200" name="直線矢印コネクタ 199">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F325081F-7C2E-DB16-8967-1A3DC7A7E105}"/>
@@ -2889,7 +2904,7 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="50" name="グループ化 49">
+            <xdr:cNvPr id="201" name="グループ化 200">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F3B4C825-90E3-92C8-BEF2-F6E38B89EC37}"/>
@@ -2908,7 +2923,7 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="76" name="四角形: 角を丸くする 42">
+              <xdr:cNvPr id="221" name="四角形: 角を丸くする 42">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D3FECF6D-5AFF-EDAC-BF83-F52E208B1F03}"/>
@@ -3059,7 +3074,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="77" name="テキスト ボックス 43">
+              <xdr:cNvPr id="222" name="テキスト ボックス 43">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{11CF5D83-67ED-4898-887F-1B5878117B7A}"/>
@@ -3070,8 +3085,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2531636" y="879480"/>
-                <a:ext cx="1943313" cy="369332"/>
+                <a:off x="2764892" y="867622"/>
+                <a:ext cx="1438484" cy="343414"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3189,7 +3204,7 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+            <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1E7522C0-5450-ACE8-4295-7A36E4EBEB6E}"/>
@@ -3202,7 +3217,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7585105" y="5954981"/>
+              <a:off x="7585105" y="5860115"/>
               <a:ext cx="1170601" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
@@ -3232,7 +3247,7 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="56" name="グループ化 55">
+            <xdr:cNvPr id="203" name="グループ化 202">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F155EB5E-8992-C110-5E52-64DB8691A17F}"/>
@@ -3243,15 +3258,15 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="8949430" y="5457003"/>
-              <a:ext cx="2438401" cy="842681"/>
-              <a:chOff x="2103612" y="645460"/>
-              <a:chExt cx="2438401" cy="842681"/>
+              <a:off x="8949430" y="5457004"/>
+              <a:ext cx="2510733" cy="842682"/>
+              <a:chOff x="2103612" y="645461"/>
+              <a:chExt cx="2510733" cy="842682"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="74" name="四角形: 角を丸くする 54">
+              <xdr:cNvPr id="219" name="四角形: 角を丸くする 54">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{6AA7B225-B174-5602-5649-2C3ECE95E474}"/>
@@ -3262,8 +3277,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2103612" y="645460"/>
-                <a:ext cx="2438401" cy="842681"/>
+                <a:off x="2103612" y="645461"/>
+                <a:ext cx="2438401" cy="842682"/>
               </a:xfrm>
               <a:prstGeom prst="roundRect">
                 <a:avLst/>
@@ -3402,7 +3417,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="75" name="テキスト ボックス 55">
+              <xdr:cNvPr id="220" name="テキスト ボックス 55">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{1146E0FB-937F-944D-6128-1E5360CD7F5C}"/>
@@ -3413,8 +3428,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2267895" y="888815"/>
-                <a:ext cx="2231700" cy="369332"/>
+                <a:off x="2420133" y="888815"/>
+                <a:ext cx="2194212" cy="338470"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3532,7 +3547,7 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+            <xdr:cNvPr id="204" name="直線矢印コネクタ 203">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7483E73C-01FB-B0D3-45A0-E92828DAD77D}"/>
@@ -3576,7 +3591,7 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="58" name="テキスト ボックス 64">
+            <xdr:cNvPr id="205" name="テキスト ボックス 64">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E917E655-4467-244B-9204-D2931EC921CE}"/>
@@ -3587,8 +3602,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7307873" y="5086616"/>
-              <a:ext cx="1790905" cy="646331"/>
+              <a:off x="7332256" y="5011753"/>
+              <a:ext cx="1623606" cy="476375"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3713,7 +3728,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="テキスト ボックス 65">
+            <xdr:cNvPr id="206" name="テキスト ボックス 65">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D7EC5B19-7E71-3CAD-F87D-535473F3C650}"/>
@@ -3724,8 +3739,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2396440" y="4302189"/>
-              <a:ext cx="1705725" cy="646331"/>
+              <a:off x="2141108" y="4295313"/>
+              <a:ext cx="1924002" cy="458549"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3850,7 +3865,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="テキスト ボックス 67">
+            <xdr:cNvPr id="207" name="テキスト ボックス 67">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{F3D41CB9-F1A8-FD0C-012C-5FE7F5C60BF3}"/>
@@ -3861,8 +3876,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3207554" y="5034047"/>
-              <a:ext cx="1668044" cy="546704"/>
+              <a:off x="3193601" y="5040966"/>
+              <a:ext cx="1784843" cy="416567"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3987,7 +4002,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="テキスト ボックス 69">
+            <xdr:cNvPr id="208" name="テキスト ボックス 69">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4E807E61-5923-FDD2-E6D5-272469D9E226}"/>
@@ -3998,8 +4013,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2998991" y="6416079"/>
-              <a:ext cx="2220353" cy="646331"/>
+              <a:off x="3256811" y="6413708"/>
+              <a:ext cx="1721632" cy="695925"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4124,7 +4139,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+            <xdr:cNvPr id="209" name="直線矢印コネクタ 208">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{AD0A7BB7-8570-0D0B-B11A-ABBC28B5E89F}"/>
@@ -4167,7 +4182,7 @@
         </xdr:cxnSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="65" name="グループ化 64">
+            <xdr:cNvPr id="210" name="グループ化 209">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{5177BF1D-C2A3-C65E-45BB-D640A64BEBAB}"/>
@@ -4178,15 +4193,15 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="8937548" y="3160059"/>
-              <a:ext cx="2849827" cy="888064"/>
-              <a:chOff x="2026336" y="645461"/>
-              <a:chExt cx="2517825" cy="816426"/>
+              <a:off x="8947339" y="3160059"/>
+              <a:ext cx="2689599" cy="888064"/>
+              <a:chOff x="2034987" y="645461"/>
+              <a:chExt cx="2376263" cy="816426"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="72" name="四角形: 角を丸くする 75">
+              <xdr:cNvPr id="217" name="四角形: 角を丸くする 75">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D02F8C76-CED7-2E97-E2C9-9373B02CC245}"/>
@@ -4337,7 +4352,7 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="73" name="テキスト ボックス 76">
+              <xdr:cNvPr id="218" name="テキスト ボックス 76">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                     <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{176F5CB8-CA5F-EBF0-9896-6122454F6358}"/>
@@ -4348,8 +4363,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2026336" y="836304"/>
-                <a:ext cx="2517825" cy="369332"/>
+                <a:off x="2093595" y="812755"/>
+                <a:ext cx="2317655" cy="454148"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -4467,7 +4482,7 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="66" name="テキスト ボックス 78">
+            <xdr:cNvPr id="211" name="テキスト ボックス 78">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{67118CB8-F75E-8688-DE66-0F510F3053AA}"/>
@@ -4478,8 +4493,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4611398" y="2588355"/>
-              <a:ext cx="3591183" cy="646331"/>
+              <a:off x="5311170" y="2412851"/>
+              <a:ext cx="2318886" cy="688912"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4604,7 +4619,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="67" name="テキスト ボックス 79">
+            <xdr:cNvPr id="212" name="テキスト ボックス 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{36A258FE-036B-E6CF-9E79-B1CB1A431CA2}"/>
@@ -4615,8 +4630,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6692547" y="3837776"/>
-              <a:ext cx="2614934" cy="414853"/>
+              <a:off x="5426586" y="3745992"/>
+              <a:ext cx="2203470" cy="610142"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4741,7 +4756,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+            <xdr:cNvPr id="213" name="直線矢印コネクタ 212">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{FE497F89-774F-5D06-E70D-F6CA6776B252}"/>
@@ -4784,7 +4799,7 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="69" name="直線コネクタ 68">
+            <xdr:cNvPr id="214" name="直線コネクタ 213">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{7227A2A8-9146-F5F5-87CA-17720E2D6B86}"/>
@@ -4824,7 +4839,7 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="70" name="直線コネクタ 69">
+            <xdr:cNvPr id="215" name="直線コネクタ 214">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{884526CE-3D81-3C4F-541E-3BDD4FBAA711}"/>
@@ -4864,7 +4879,7 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="71" name="テキスト ボックス 99">
+            <xdr:cNvPr id="216" name="テキスト ボックス 99">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{75E21272-7C48-4280-AA24-BA6450652944}"/>
@@ -4875,8 +4890,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10180259" y="4397592"/>
-              <a:ext cx="1864925" cy="646331"/>
+              <a:off x="10150795" y="4489375"/>
+              <a:ext cx="1898613" cy="539838"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5261,7 +5276,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5271,8 +5286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CH15" sqref="CH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/画面設計書/画面設計書_2_画面遷移図.xlsx
+++ b/画面設計書/画面設計書_2_画面遷移図.xlsx
@@ -600,8 +600,8 @@
     <xdr:to>
       <xdr:col>85</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185777</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -617,9 +617,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="212430" y="1258662"/>
-          <a:ext cx="10176623" cy="5296580"/>
+          <a:ext cx="10176623" cy="4995901"/>
           <a:chOff x="-192425" y="103512"/>
-          <a:chExt cx="12241833" cy="7006121"/>
+          <a:chExt cx="12241833" cy="6608394"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -909,9 +909,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="806262" y="103512"/>
-            <a:ext cx="11243146" cy="7006121"/>
+            <a:ext cx="11243146" cy="6608394"/>
             <a:chOff x="806262" y="103512"/>
-            <a:chExt cx="11243146" cy="7006121"/>
+            <a:chExt cx="11243146" cy="6608394"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -2753,112 +2753,49 @@
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="199" name="グループ化 198">
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="223" name="直線矢印コネクタ 222">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{E5C04176-EC55-E68F-C10D-B89A10AE029B}"/>
+                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3527D45C-4545-4E78-033A-5D97E633D58E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="3397761" y="5916208"/>
-              <a:ext cx="1226751" cy="504006"/>
-              <a:chOff x="3487194" y="6103770"/>
-              <a:chExt cx="905093" cy="504006"/>
+              <a:off x="3486149" y="5916208"/>
+              <a:ext cx="1138364" cy="0"/>
             </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="223" name="直線矢印コネクタ 222">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{3527D45C-4545-4E78-033A-5D97E633D58E}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvCxnSpPr>
-                <a:cxnSpLocks/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3552406" y="6103770"/>
-                <a:ext cx="839881" cy="0"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:tailEnd type="triangle"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
                 <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="224" name="直線矢印コネクタ 223">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{C26DAABB-62DF-0808-629C-E6592024D1BB}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvCxnSpPr>
-                <a:cxnSpLocks/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="3487194" y="6607776"/>
-                <a:ext cx="839881" cy="0"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:tailEnd type="triangle"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-        </xdr:grpSp>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="200" name="直線矢印コネクタ 199">
@@ -3085,8 +3022,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2764892" y="867622"/>
-                <a:ext cx="1438484" cy="343414"/>
+                <a:off x="2633945" y="831624"/>
+                <a:ext cx="1438484" cy="343415"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3988,143 +3925,6 @@
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
                 <a:t>スタート</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-                <a:t>ボタン押下</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="208" name="テキスト ボックス 69">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4E807E61-5923-FDD2-E6D5-272469D9E226}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3256811" y="6413708"/>
-              <a:ext cx="1721632" cy="695925"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-                <a:t>戻る</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
             </a:p>
@@ -5287,7 +5087,7 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CH15" sqref="CH15"/>
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
